--- a/src/assets/ExcelSample/TinhHinhSanXuat.xlsx
+++ b/src/assets/ExcelSample/TinhHinhSanXuat.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09620A40-02B5-4299-8FA1-FCA4E987A033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thông tin giá cả trong nước" sheetId="1" r:id="rId1"/>
@@ -15,109 +16,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>ID sản phẩm</t>
   </si>
   <si>
-    <t>Cà phê</t>
-  </si>
-  <si>
-    <t>Cao su</t>
-  </si>
-  <si>
-    <t>Hạt điều</t>
-  </si>
-  <si>
-    <t>Giày dép các loại</t>
-  </si>
-  <si>
-    <t>Hàng dệt, may</t>
-  </si>
-  <si>
-    <t>Gỗ và sản phẩm gỗ</t>
-  </si>
-  <si>
-    <t>Giấy và các sản phẩm từ giấy</t>
-  </si>
-  <si>
-    <t>Máy móc, thiết bị, dụng cụ phụ tùng khác</t>
-  </si>
-  <si>
-    <t>Máy vi tính, sản phẩm điện tử và linh kiện</t>
-  </si>
-  <si>
-    <t>Sắn và các sản phẩm từ sắn</t>
-  </si>
-  <si>
-    <t>Phương tiện vận tải và phụ tùng</t>
-  </si>
-  <si>
-    <t>Sản phẩm từ chất dẻo</t>
-  </si>
-  <si>
-    <t>Sản phẩm từ cao su</t>
-  </si>
-  <si>
-    <t>Nguyên phụ liệu dệt, may, da, giày</t>
-  </si>
-  <si>
-    <t>Sản phẩm hóa chất</t>
-  </si>
-  <si>
-    <t>Hàng hóa khác</t>
-  </si>
-  <si>
-    <t>Xơ, sợi dệt các loại</t>
-  </si>
-  <si>
-    <t>Vải các loại</t>
-  </si>
-  <si>
-    <t>Kim loại thường khác</t>
-  </si>
-  <si>
-    <t>Chất dẻo nguyên liệu</t>
-  </si>
-  <si>
-    <t>Sản phẩm từ sắt thép</t>
-  </si>
-  <si>
-    <t>Hóa chất</t>
-  </si>
-  <si>
-    <t>Giấy các loại</t>
-  </si>
-  <si>
-    <t>Hạt điều thô</t>
-  </si>
-  <si>
-    <t>Hạt tiêu đen</t>
-  </si>
-  <si>
-    <t>Hạt điều nhân (320)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cao su RSS3  </t>
-  </si>
-  <si>
-    <t>Mủ cao su</t>
-  </si>
-  <si>
     <t>Tên Sản Phẩm</t>
   </si>
   <si>
-    <t>Trị giá</t>
-  </si>
-  <si>
     <t>Sản lượng</t>
+  </si>
+  <si>
+    <t>Đá xây dựng khác</t>
+  </si>
+  <si>
+    <t>Quần áo các loại</t>
+  </si>
+  <si>
+    <t>Ván ép từ gỗ và các vật liệu tương tự</t>
+  </si>
+  <si>
+    <t>Các hợp chất từ cao su, các loại nhựa tự nhiên tương tự, ở dạng nguyên sinh hoặc tấm lỏ hoặc dải</t>
+  </si>
+  <si>
+    <t>Xi măng Portland đen</t>
+  </si>
+  <si>
+    <t>Tủ, bàn, đồ nội thất bàng gỗ</t>
+  </si>
+  <si>
+    <t>Hạt điều nhân</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,13 +73,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -182,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -190,7 +118,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,62 +397,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2">
         <v>10</v>
       </c>
-      <c r="C2" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>4</v>
+        <v>269</v>
       </c>
       <c r="B3" s="2">
         <v>20</v>
       </c>
-      <c r="C3" s="2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>25</v>
+        <v>270</v>
       </c>
       <c r="B4" s="2">
         <v>30</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3000</v>
       </c>
     </row>
   </sheetData>
@@ -535,247 +449,81 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="A1:B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>269</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>270</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>271</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>272</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>273</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>274</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
